--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -348,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -380,6 +386,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
